--- a/Etiquette/SRO-21-011-077-DETAIL-ETIQUETTE.xlsx
+++ b/Etiquette/SRO-21-011-077-DETAIL-ETIQUETTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="277">
   <si>
     <t>CODE POINT TECHNIQUE</t>
   </si>
@@ -136,15 +136,15 @@
     <t>21464/419743</t>
   </si>
   <si>
+    <t>CDI-21-011-077-1028-24 FO</t>
+  </si>
+  <si>
+    <t>F97179290721-09/2021</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-1027-24 FO</t>
   </si>
   <si>
-    <t>F97179290721-09/2021</t>
-  </si>
-  <si>
-    <t>CDI-21-011-077-1028-24 FO</t>
-  </si>
-  <si>
     <t>21464/419741</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>21464/419745</t>
   </si>
   <si>
+    <t>F97120290721-09/2021</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-1026-24 FO</t>
   </si>
   <si>
-    <t>F97120290721-09/2021</t>
-  </si>
-  <si>
     <t>21464/0419747</t>
   </si>
   <si>
@@ -250,7 +250,7 @@
     <t>FAC-21464-4850</t>
   </si>
   <si>
-    <t>SRO-21-011-077</t>
+    <t>CHA-21464-4895</t>
   </si>
   <si>
     <t>CMO-21464-4420</t>
@@ -268,9 +268,6 @@
     <t>CMO-21464-4900</t>
   </si>
   <si>
-    <t>CHA-21464-4895</t>
-  </si>
-  <si>
     <t>21464/762</t>
   </si>
   <si>
@@ -412,21 +409,21 @@
     <t>CDI-21-011-077-1002-12 FO</t>
   </si>
   <si>
+    <t>CDI-21-011-077-1007-72 FO</t>
+  </si>
+  <si>
+    <t>CDI-21-011-077-1009-72 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-1004-36 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-077-1007-72 FO</t>
+    <t>CDI-21-011-077-1008-36 FO</t>
   </si>
   <si>
     <t>CDI-21-011-077-1001-36 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-077-1009-72 FO</t>
-  </si>
-  <si>
-    <t>CDI-21-011-077-1008-36 FO</t>
-  </si>
-  <si>
     <t>21464/713</t>
   </si>
   <si>
@@ -436,12 +433,12 @@
     <t>21464/790</t>
   </si>
   <si>
+    <t>CDI-21-011-077-1006-36 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-1005-24 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-077-1006-36 FO</t>
-  </si>
-  <si>
     <t>21464/1113</t>
   </si>
   <si>
@@ -475,15 +472,15 @@
     <t>21464/792</t>
   </si>
   <si>
+    <t>CDI-21-011-077-1036-12 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-1011-72 FO</t>
   </si>
   <si>
     <t>CDI-21-011-077-1035-24 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-077-1036-12 FO</t>
-  </si>
-  <si>
     <t>21464/781</t>
   </si>
   <si>
@@ -520,12 +517,12 @@
     <t>21464/883</t>
   </si>
   <si>
+    <t>CDI-21-011-077-3030-12 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-3021-12 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-077-3030-12 FO</t>
-  </si>
-  <si>
     <t>CDI-21-011-077-3011-36 FO</t>
   </si>
   <si>
@@ -544,10 +541,10 @@
     <t>21464/425</t>
   </si>
   <si>
+    <t>CDI-21-011-077-3017-96 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-077-3020-72 FO</t>
-  </si>
-  <si>
-    <t>CDI-21-011-077-3017-96 FO</t>
   </si>
   <si>
     <t>21464/752</t>
@@ -1481,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>24</v>
@@ -1502,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>24</v>
@@ -1754,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>43</v>
@@ -1775,10 +1772,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1796,10 +1793,10 @@
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1831,7 +1828,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2511,27 +2508,6 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2539,7 +2515,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2570,19 +2546,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>49</v>
@@ -2591,19 +2567,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>49</v>
@@ -2612,7 +2588,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -2624,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>49</v>
@@ -2633,7 +2609,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -2645,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>49</v>
@@ -2654,7 +2630,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -2666,7 +2642,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>49</v>
@@ -2675,7 +2651,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -2687,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>49</v>
@@ -2696,19 +2672,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>49</v>
@@ -2717,7 +2693,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -2729,7 +2705,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>49</v>
@@ -2738,7 +2714,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -2750,7 +2726,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>49</v>
@@ -2759,19 +2735,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>49</v>
@@ -2780,19 +2756,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>49</v>
@@ -2801,7 +2777,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -2813,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>49</v>
@@ -2822,7 +2798,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -2834,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>49</v>
@@ -2843,19 +2819,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>49</v>
@@ -2864,7 +2840,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -2876,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>49</v>
@@ -2885,7 +2861,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -2897,16 +2873,16 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -2918,28 +2894,28 @@
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
@@ -2948,7 +2924,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -2960,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>49</v>
@@ -2969,19 +2945,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>49</v>
@@ -2990,7 +2966,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
@@ -3002,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>49</v>
@@ -3011,19 +2987,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>49</v>
@@ -3032,7 +3008,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -3044,7 +3020,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>49</v>
@@ -3053,7 +3029,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
@@ -3065,7 +3041,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>49</v>
@@ -3074,7 +3050,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -3095,7 +3071,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
@@ -3107,7 +3083,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>49</v>
@@ -3116,7 +3092,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -3128,7 +3104,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>49</v>
@@ -3137,7 +3113,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
@@ -3149,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>49</v>
@@ -3158,19 +3134,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>49</v>
@@ -3179,7 +3155,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
@@ -3191,7 +3167,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>49</v>
@@ -3200,7 +3176,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
@@ -3212,7 +3188,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>49</v>
@@ -3221,7 +3197,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -3233,7 +3209,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>49</v>
@@ -3242,7 +3218,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -3254,7 +3230,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>49</v>
@@ -3263,19 +3239,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>49</v>
@@ -3284,7 +3260,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -3296,7 +3272,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>49</v>
@@ -3305,7 +3281,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
@@ -3317,7 +3293,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>49</v>
@@ -3326,7 +3302,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -3347,7 +3323,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -3359,7 +3335,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>49</v>
@@ -3368,7 +3344,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -3380,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>49</v>
@@ -3389,7 +3365,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
@@ -3401,7 +3377,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>49</v>
@@ -3410,7 +3386,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
@@ -3422,7 +3398,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>49</v>
@@ -3431,7 +3407,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -3443,7 +3419,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>49</v>
@@ -3452,7 +3428,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44" s="2">
         <v>2</v>
@@ -3464,7 +3440,7 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>49</v>
@@ -3473,7 +3449,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -3485,7 +3461,7 @@
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>49</v>
@@ -3494,7 +3470,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="2">
         <v>2</v>
@@ -3506,7 +3482,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>49</v>
@@ -3515,49 +3491,49 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B48" s="2">
-        <v>2</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="2">
         <v>2</v>
@@ -3569,7 +3545,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>49</v>
@@ -3578,19 +3554,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B50" s="2">
-        <v>2</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>49</v>
@@ -3599,7 +3575,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
@@ -3611,7 +3587,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>49</v>
@@ -3620,7 +3596,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="2">
         <v>2</v>
@@ -3632,7 +3608,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>49</v>
@@ -3641,7 +3617,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="2">
         <v>2</v>
@@ -3653,7 +3629,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>49</v>
@@ -3662,7 +3638,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
@@ -3674,7 +3650,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>49</v>
@@ -3683,7 +3659,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -3695,7 +3671,7 @@
         <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>49</v>
@@ -3704,7 +3680,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
@@ -3716,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>49</v>
@@ -3725,19 +3701,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>49</v>
@@ -3746,7 +3722,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
@@ -3758,7 +3734,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>49</v>
@@ -3767,7 +3743,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
@@ -3779,7 +3755,7 @@
         <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>49</v>
@@ -3788,7 +3764,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2">
         <v>2</v>
@@ -3800,7 +3776,7 @@
         <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>49</v>
@@ -3809,7 +3785,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
@@ -3821,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>49</v>
@@ -3830,7 +3806,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
@@ -3842,7 +3818,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>49</v>
@@ -3851,7 +3827,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
@@ -3863,7 +3839,7 @@
         <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>49</v>
@@ -3872,7 +3848,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2">
         <v>2</v>
@@ -3884,7 +3860,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>49</v>
@@ -3893,7 +3869,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
@@ -3905,7 +3881,7 @@
         <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>49</v>
@@ -3914,7 +3890,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2">
         <v>2</v>
@@ -3926,7 +3902,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>49</v>
@@ -3935,19 +3911,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B67" s="2">
-        <v>2</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>49</v>
@@ -3956,7 +3932,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B68" s="2">
         <v>2</v>
@@ -3968,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>49</v>
@@ -3977,7 +3953,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
@@ -3998,7 +3974,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B70" s="2">
         <v>2</v>
@@ -4010,7 +3986,7 @@
         <v>9</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>49</v>
@@ -4019,7 +3995,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2">
         <v>2</v>
@@ -4031,7 +4007,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>49</v>
@@ -4040,7 +4016,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2">
         <v>2</v>
@@ -4052,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>49</v>
@@ -4061,7 +4037,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
@@ -4073,7 +4049,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>49</v>
@@ -4082,7 +4058,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74" s="2">
         <v>2</v>
@@ -4094,7 +4070,7 @@
         <v>9</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>49</v>
@@ -4103,7 +4079,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
@@ -4115,7 +4091,7 @@
         <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>49</v>
@@ -4124,7 +4100,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2">
         <v>2</v>
@@ -4136,7 +4112,7 @@
         <v>9</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>49</v>
@@ -4145,7 +4121,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B77" s="2">
         <v>2</v>
@@ -4157,7 +4133,7 @@
         <v>9</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>49</v>
@@ -4166,7 +4142,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2">
         <v>2</v>
@@ -4178,7 +4154,7 @@
         <v>9</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>49</v>
@@ -4187,7 +4163,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2">
         <v>2</v>
@@ -4199,7 +4175,7 @@
         <v>9</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>49</v>
@@ -4208,19 +4184,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B80" s="2">
-        <v>2</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>49</v>
@@ -4229,7 +4205,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2">
         <v>2</v>
@@ -4241,7 +4217,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>49</v>
@@ -4250,7 +4226,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2">
         <v>2</v>
@@ -4262,7 +4238,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>49</v>
@@ -4271,7 +4247,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2">
         <v>2</v>
@@ -4283,7 +4259,7 @@
         <v>9</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>49</v>
@@ -4292,7 +4268,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2">
         <v>2</v>
@@ -4304,7 +4280,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>49</v>
@@ -4313,7 +4289,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2">
         <v>2</v>
@@ -4334,7 +4310,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B86" s="2">
         <v>2</v>
@@ -4346,7 +4322,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>49</v>
@@ -4355,7 +4331,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2">
         <v>2</v>
@@ -4367,7 +4343,7 @@
         <v>9</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>49</v>
@@ -4376,7 +4352,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B88" s="2">
         <v>2</v>
@@ -4388,7 +4364,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>49</v>
@@ -4397,7 +4373,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2">
         <v>2</v>
@@ -4409,7 +4385,7 @@
         <v>9</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>49</v>
@@ -4418,7 +4394,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2">
         <v>2</v>
@@ -4430,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>49</v>
@@ -4439,7 +4415,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B91" s="2">
         <v>2</v>
@@ -4451,7 +4427,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>49</v>
@@ -4460,7 +4436,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B92" s="2">
         <v>2</v>
@@ -4472,7 +4448,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>49</v>
@@ -4481,7 +4457,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2">
         <v>2</v>
@@ -4493,7 +4469,7 @@
         <v>9</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>49</v>
@@ -4502,7 +4478,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2">
         <v>2</v>
@@ -4514,7 +4490,7 @@
         <v>9</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>49</v>
@@ -4523,7 +4499,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2">
         <v>2</v>
@@ -4535,7 +4511,7 @@
         <v>9</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>49</v>
@@ -4544,19 +4520,19 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B96" s="2">
-        <v>2</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>49</v>
@@ -4565,7 +4541,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B97" s="2">
         <v>2</v>
@@ -4577,7 +4553,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>49</v>
@@ -4586,7 +4562,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B98" s="2">
         <v>2</v>
@@ -4598,7 +4574,7 @@
         <v>9</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>49</v>
@@ -4607,7 +4583,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B99" s="2">
         <v>2</v>
@@ -4619,7 +4595,7 @@
         <v>9</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>49</v>
@@ -4628,7 +4604,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B100" s="2">
         <v>2</v>
@@ -4640,16 +4616,16 @@
         <v>9</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B101" s="2">
         <v>2</v>
@@ -4661,16 +4637,16 @@
         <v>9</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G101" s="2"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B102" s="2">
         <v>2</v>
@@ -4682,16 +4658,16 @@
         <v>9</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G102" s="2"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B103" s="2">
         <v>2</v>
@@ -4703,7 +4679,7 @@
         <v>9</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -4712,7 +4688,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B104" s="2">
         <v>2</v>
@@ -4724,16 +4700,16 @@
         <v>9</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B105" s="2">
         <v>2</v>
@@ -4745,7 +4721,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>49</v>
@@ -4754,7 +4730,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B106" s="2">
         <v>2</v>
@@ -4766,7 +4742,7 @@
         <v>9</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>49</v>
@@ -4775,7 +4751,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="2">
         <v>2</v>
@@ -4787,7 +4763,7 @@
         <v>9</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>49</v>
@@ -4796,10 +4772,10 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="B108" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
@@ -4808,10 +4784,10 @@
         <v>9</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G108" s="2"/>
     </row>
@@ -4829,7 +4805,7 @@
         <v>9</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>17</v>
@@ -4838,7 +4814,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -4850,16 +4826,16 @@
         <v>9</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -4871,10 +4847,10 @@
         <v>9</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2"/>
     </row>
@@ -4892,7 +4868,7 @@
         <v>9</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>24</v>
@@ -4901,7 +4877,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
@@ -4922,7 +4898,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
@@ -4934,10 +4910,10 @@
         <v>9</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G114" s="2"/>
     </row>
@@ -4955,7 +4931,7 @@
         <v>9</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>31</v>
@@ -4964,7 +4940,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
@@ -4976,16 +4952,16 @@
         <v>9</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G116" s="2"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
@@ -4997,10 +4973,10 @@
         <v>9</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G117" s="2"/>
     </row>
@@ -5018,7 +4994,7 @@
         <v>9</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>24</v>
@@ -5027,10 +5003,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B119" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
@@ -5039,28 +5015,28 @@
         <v>9</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G119" s="2"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B120" s="2">
-        <v>2</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>21</v>
@@ -5069,7 +5045,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B121" s="2">
         <v>2</v>
@@ -5081,16 +5057,16 @@
         <v>9</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2">
         <v>2</v>
@@ -5102,7 +5078,7 @@
         <v>9</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>11</v>
@@ -5111,7 +5087,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B123" s="2">
         <v>2</v>
@@ -5123,7 +5099,7 @@
         <v>9</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>11</v>
@@ -5132,19 +5108,19 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B124" s="2">
-        <v>2</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>11</v>
@@ -5153,7 +5129,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B125" s="2">
         <v>2</v>
@@ -5165,7 +5141,7 @@
         <v>9</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>11</v>
@@ -5174,7 +5150,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B126" s="2">
         <v>2</v>
@@ -5186,7 +5162,7 @@
         <v>9</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>11</v>
@@ -5195,7 +5171,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B127" s="2">
         <v>2</v>
@@ -5207,7 +5183,7 @@
         <v>9</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>11</v>
@@ -5216,7 +5192,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B128" s="2">
         <v>2</v>
@@ -5237,7 +5213,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B129" s="2">
         <v>2</v>
@@ -5249,7 +5225,7 @@
         <v>9</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>11</v>
@@ -5258,7 +5234,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B130" s="2">
         <v>2</v>
@@ -5270,7 +5246,7 @@
         <v>9</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>11</v>
@@ -5279,7 +5255,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B131" s="2">
         <v>2</v>
@@ -5291,7 +5267,7 @@
         <v>9</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>11</v>
@@ -5300,19 +5276,19 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B132" s="2">
-        <v>2</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>11</v>
@@ -5321,7 +5297,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" s="2">
         <v>2</v>
@@ -5333,7 +5309,7 @@
         <v>9</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>11</v>
@@ -5342,7 +5318,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134" s="2">
         <v>2</v>
@@ -5354,7 +5330,7 @@
         <v>9</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>11</v>
@@ -5363,7 +5339,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B135" s="2">
         <v>2</v>
@@ -5375,16 +5351,16 @@
         <v>9</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G135" s="2"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B136" s="2">
         <v>2</v>
@@ -5396,7 +5372,7 @@
         <v>9</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>21</v>
@@ -5405,7 +5381,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B137" s="2">
         <v>2</v>
@@ -5417,16 +5393,16 @@
         <v>9</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B138" s="2">
         <v>2</v>
@@ -5438,16 +5414,16 @@
         <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G138" s="2"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B139" s="2">
         <v>2</v>
@@ -5459,16 +5435,16 @@
         <v>9</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G139" s="2"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B140" s="2">
         <v>2</v>
@@ -5489,7 +5465,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141" s="2">
         <v>2</v>
@@ -5501,7 +5477,7 @@
         <v>9</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>31</v>
@@ -5510,7 +5486,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B142" s="2">
         <v>2</v>
@@ -5522,16 +5498,16 @@
         <v>9</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G142" s="2"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B143" s="2">
         <v>2</v>
@@ -5543,7 +5519,7 @@
         <v>9</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>21</v>
@@ -5552,7 +5528,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="2">
         <v>2</v>
@@ -5564,7 +5540,7 @@
         <v>9</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>21</v>
@@ -5573,7 +5549,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B145" s="2">
         <v>2</v>
@@ -5585,7 +5561,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>21</v>
@@ -5594,7 +5570,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B146" s="2">
         <v>2</v>
@@ -5606,7 +5582,7 @@
         <v>9</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>21</v>
@@ -5615,7 +5591,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B147" s="2">
         <v>2</v>
@@ -5627,7 +5603,7 @@
         <v>9</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>21</v>
@@ -5636,7 +5612,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B148" s="2">
         <v>2</v>
@@ -5648,7 +5624,7 @@
         <v>9</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>21</v>
@@ -5657,7 +5633,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B149" s="2">
         <v>2</v>
@@ -5669,7 +5645,7 @@
         <v>9</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>21</v>
@@ -5678,7 +5654,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B150" s="2">
         <v>2</v>
@@ -5690,7 +5666,7 @@
         <v>9</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>21</v>
@@ -5699,7 +5675,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B151" s="2">
         <v>2</v>
@@ -5711,7 +5687,7 @@
         <v>9</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>21</v>
@@ -5720,7 +5696,7 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B152" s="2">
         <v>2</v>
@@ -5741,7 +5717,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B153" s="2">
         <v>2</v>
@@ -5753,7 +5729,7 @@
         <v>9</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>21</v>
@@ -5762,7 +5738,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B154" s="2">
         <v>2</v>
@@ -5774,7 +5750,7 @@
         <v>9</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>21</v>
@@ -5783,7 +5759,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B155" s="2">
         <v>2</v>
@@ -5795,7 +5771,7 @@
         <v>9</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>21</v>
@@ -5804,7 +5780,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B156" s="2">
         <v>2</v>
@@ -5816,7 +5792,7 @@
         <v>9</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>21</v>
@@ -5825,7 +5801,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B157" s="2">
         <v>2</v>
@@ -5837,7 +5813,7 @@
         <v>9</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>21</v>
@@ -5846,7 +5822,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B158" s="2">
         <v>2</v>
@@ -5858,7 +5834,7 @@
         <v>9</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>21</v>
@@ -5867,7 +5843,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B159" s="2">
         <v>2</v>
@@ -5879,7 +5855,7 @@
         <v>9</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>21</v>
@@ -5888,7 +5864,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B160" s="2">
         <v>2</v>
@@ -5900,16 +5876,16 @@
         <v>9</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G160" s="2"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B161" s="2">
         <v>2</v>
@@ -5921,7 +5897,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>17</v>
@@ -5930,7 +5906,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B162" s="2">
         <v>2</v>
@@ -5942,7 +5918,7 @@
         <v>9</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>17</v>
@@ -5951,7 +5927,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B163" s="2">
         <v>2</v>
@@ -5963,7 +5939,7 @@
         <v>9</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>17</v>
@@ -5972,7 +5948,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B164" s="2">
         <v>2</v>
@@ -5984,7 +5960,7 @@
         <v>9</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>17</v>
@@ -5993,7 +5969,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B165" s="2">
         <v>2</v>
@@ -6005,7 +5981,7 @@
         <v>9</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>17</v>
@@ -6014,7 +5990,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B166" s="2">
         <v>2</v>
@@ -6026,7 +6002,7 @@
         <v>9</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>17</v>
@@ -6035,7 +6011,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B167" s="2">
         <v>2</v>
@@ -6047,16 +6023,16 @@
         <v>9</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G167" s="2"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B168" s="2">
         <v>2</v>
@@ -6068,7 +6044,7 @@
         <v>9</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>21</v>
@@ -6077,7 +6053,7 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B169" s="2">
         <v>2</v>
@@ -6089,7 +6065,7 @@
         <v>9</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>21</v>
@@ -6098,7 +6074,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B170" s="2">
         <v>2</v>
@@ -6110,7 +6086,7 @@
         <v>9</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>21</v>
@@ -6119,7 +6095,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B171" s="2">
         <v>2</v>
@@ -6131,7 +6107,7 @@
         <v>9</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>21</v>
@@ -6140,7 +6116,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B172" s="2">
         <v>2</v>
@@ -6152,16 +6128,16 @@
         <v>9</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B173" s="2">
         <v>2</v>
@@ -6173,7 +6149,7 @@
         <v>9</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>11</v>
@@ -6182,7 +6158,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B174" s="2">
         <v>2</v>
@@ -6194,7 +6170,7 @@
         <v>9</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>11</v>
@@ -6203,7 +6179,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B175" s="2">
         <v>2</v>
@@ -6215,7 +6191,7 @@
         <v>9</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>11</v>
@@ -6224,7 +6200,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B176" s="2">
         <v>2</v>
@@ -6236,7 +6212,7 @@
         <v>9</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>11</v>
@@ -6245,7 +6221,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B177" s="2">
         <v>2</v>
@@ -6257,7 +6233,7 @@
         <v>9</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>11</v>
@@ -6266,7 +6242,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B178" s="2">
         <v>2</v>
@@ -6278,7 +6254,7 @@
         <v>9</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>11</v>
@@ -6287,7 +6263,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B179" s="2">
         <v>2</v>
@@ -6299,7 +6275,7 @@
         <v>9</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>11</v>
@@ -6308,10 +6284,10 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="B180" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
@@ -6320,10 +6296,10 @@
         <v>9</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G180" s="2"/>
     </row>
@@ -6341,7 +6317,7 @@
         <v>9</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>40</v>
@@ -6350,7 +6326,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B182" s="2">
         <v>1</v>
@@ -6365,13 +6341,13 @@
         <v>41</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G182" s="2"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B183" s="2">
         <v>1</v>
@@ -6383,10 +6359,10 @@
         <v>9</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G183" s="2"/>
     </row>
@@ -6404,16 +6380,16 @@
         <v>9</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G184" s="2"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B185" s="2">
         <v>1</v>
@@ -6425,16 +6401,16 @@
         <v>9</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G185" s="2"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B186" s="2">
         <v>1</v>
@@ -6446,7 +6422,7 @@
         <v>9</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>52</v>
@@ -6455,7 +6431,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B187" s="2">
         <v>1</v>
@@ -6467,7 +6443,7 @@
         <v>9</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>52</v>
@@ -6476,7 +6452,7 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B188" s="2">
         <v>1</v>
@@ -6488,7 +6464,7 @@
         <v>9</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>52</v>
@@ -6497,7 +6473,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B189" s="2">
         <v>1</v>
@@ -6509,7 +6485,7 @@
         <v>9</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>52</v>
@@ -6518,7 +6494,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B190" s="2">
         <v>1</v>
@@ -6530,7 +6506,7 @@
         <v>9</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>52</v>
@@ -6539,7 +6515,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B191" s="2">
         <v>1</v>
@@ -6551,7 +6527,7 @@
         <v>9</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>52</v>
@@ -6560,7 +6536,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B192" s="2">
         <v>1</v>
@@ -6572,7 +6548,7 @@
         <v>9</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>52</v>
@@ -6581,7 +6557,7 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B193" s="2">
         <v>1</v>
@@ -6593,7 +6569,7 @@
         <v>9</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>52</v>
@@ -6602,7 +6578,7 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B194" s="2">
         <v>1</v>
@@ -6614,7 +6590,7 @@
         <v>9</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>52</v>
@@ -6635,7 +6611,7 @@
         <v>9</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>52</v>
@@ -6656,7 +6632,7 @@
         <v>9</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>52</v>
@@ -6665,7 +6641,7 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B197" s="2">
         <v>1</v>
@@ -6677,7 +6653,7 @@
         <v>9</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>52</v>
@@ -6686,7 +6662,7 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B198" s="2">
         <v>1</v>
@@ -6698,7 +6674,7 @@
         <v>9</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>52</v>
@@ -6707,7 +6683,7 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B199" s="2">
         <v>1</v>
@@ -6728,7 +6704,7 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B200" s="2">
         <v>1</v>
@@ -6740,7 +6716,7 @@
         <v>9</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>52</v>
@@ -6749,7 +6725,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B201" s="2">
         <v>1</v>
@@ -6770,7 +6746,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B202" s="2">
         <v>1</v>
@@ -6782,7 +6758,7 @@
         <v>9</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>52</v>
@@ -6791,7 +6767,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B203" s="2">
         <v>1</v>
@@ -6803,7 +6779,7 @@
         <v>9</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>52</v>
@@ -6812,7 +6788,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B204" s="2">
         <v>1</v>
@@ -6824,7 +6800,7 @@
         <v>9</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>52</v>
@@ -6833,7 +6809,7 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B205" s="2">
         <v>1</v>
@@ -6845,7 +6821,7 @@
         <v>9</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>52</v>
@@ -6866,7 +6842,7 @@
         <v>9</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>52</v>
@@ -6875,7 +6851,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B207" s="2">
         <v>1</v>
@@ -6887,7 +6863,7 @@
         <v>9</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>52</v>
@@ -6896,7 +6872,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B208" s="2">
         <v>1</v>
@@ -6908,7 +6884,7 @@
         <v>9</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>52</v>
@@ -6917,7 +6893,7 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B209" s="2">
         <v>1</v>
@@ -6929,7 +6905,7 @@
         <v>9</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>52</v>
@@ -6950,7 +6926,7 @@
         <v>9</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>52</v>
@@ -6959,7 +6935,7 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="2" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="B211" s="2">
         <v>1</v>
@@ -6971,7 +6947,7 @@
         <v>9</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>52</v>
@@ -6980,7 +6956,7 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B212" s="2">
         <v>1</v>
@@ -6992,16 +6968,16 @@
         <v>9</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="G212" s="2"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B213" s="2">
         <v>1</v>
@@ -7013,16 +6989,16 @@
         <v>9</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G213" s="2"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B214" s="2">
         <v>1</v>
@@ -7034,16 +7010,16 @@
         <v>9</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G214" s="2"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="2" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="B215" s="2">
         <v>1</v>
@@ -7055,10 +7031,10 @@
         <v>9</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="G215" s="2"/>
     </row>
@@ -7076,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>52</v>
@@ -7085,7 +7061,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B217" s="2">
         <v>1</v>
@@ -7097,7 +7073,7 @@
         <v>9</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>52</v>
@@ -7106,7 +7082,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B218" s="2">
         <v>1</v>
@@ -7118,7 +7094,7 @@
         <v>9</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>52</v>
@@ -7127,10 +7103,10 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="B219" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
@@ -7139,16 +7115,16 @@
         <v>9</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G219" s="2"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="2" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="B220" s="2">
         <v>2</v>
@@ -7160,10 +7136,10 @@
         <v>9</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G220" s="2"/>
     </row>
@@ -7181,7 +7157,7 @@
         <v>9</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>52</v>
@@ -7202,7 +7178,7 @@
         <v>9</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>52</v>
@@ -7211,7 +7187,7 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="2" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="B223" s="2">
         <v>2</v>
@@ -7223,16 +7199,16 @@
         <v>9</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="G223" s="2"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B224" s="2">
         <v>2</v>
@@ -7244,16 +7220,16 @@
         <v>9</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B225" s="2">
         <v>2</v>
@@ -7265,16 +7241,16 @@
         <v>9</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G225" s="2"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B226" s="2">
         <v>2</v>
@@ -7286,16 +7262,16 @@
         <v>9</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G226" s="2"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B227" s="2">
         <v>2</v>
@@ -7307,16 +7283,16 @@
         <v>9</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G227" s="2"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B228" s="2">
         <v>2</v>
@@ -7328,16 +7304,16 @@
         <v>9</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G228" s="2"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B229" s="2">
         <v>2</v>
@@ -7349,19 +7325,19 @@
         <v>9</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="B230" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -7370,16 +7346,16 @@
         <v>9</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B231" s="2">
         <v>1</v>
@@ -7391,7 +7367,7 @@
         <v>9</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>52</v>
@@ -7400,10 +7376,10 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B232" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -7412,7 +7388,7 @@
         <v>9</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>52</v>
@@ -7484,7 +7460,7 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="B236" s="2">
         <v>2</v>
@@ -7496,16 +7472,16 @@
         <v>9</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G236" s="2"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B237" s="2">
         <v>2</v>
@@ -7517,7 +7493,7 @@
         <v>9</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>49</v>
@@ -7526,7 +7502,7 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B238" s="2">
         <v>2</v>
@@ -7538,7 +7514,7 @@
         <v>9</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>49</v>
@@ -7547,10 +7523,10 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="2" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="B239" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
@@ -7559,16 +7535,16 @@
         <v>9</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G239" s="2"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B240" s="2">
         <v>1</v>
@@ -7580,7 +7556,7 @@
         <v>9</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>52</v>
@@ -7589,10 +7565,10 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B241" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
@@ -7601,54 +7577,12 @@
         <v>9</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G241" s="2"/>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B242" s="2">
-        <v>2</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G242" s="2"/>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B243" s="2">
-        <v>2</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G243" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7700,7 +7634,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>43</v>
@@ -7721,7 +7655,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>40</v>
@@ -7742,16 +7676,16 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
@@ -7763,7 +7697,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>49</v>
@@ -7772,7 +7706,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
@@ -7784,7 +7718,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>49</v>
@@ -7793,7 +7727,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
@@ -7805,7 +7739,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
@@ -7814,7 +7748,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
@@ -7826,7 +7760,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
@@ -7847,7 +7781,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
@@ -7856,7 +7790,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>51</v>
@@ -7868,7 +7802,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>52</v>
@@ -7889,7 +7823,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>52</v>
@@ -7910,7 +7844,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>17</v>
@@ -7931,7 +7865,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>24</v>
@@ -7952,7 +7886,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>24</v>
@@ -7973,7 +7907,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>24</v>
@@ -7994,7 +7928,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>31</v>
@@ -8003,7 +7937,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
@@ -8015,7 +7949,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -8036,7 +7970,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>52</v>
@@ -8057,7 +7991,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>52</v>
@@ -8078,7 +8012,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>52</v>
@@ -8099,7 +8033,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>52</v>
@@ -8120,7 +8054,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>52</v>
@@ -8141,7 +8075,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>52</v>
@@ -8162,7 +8096,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>52</v>
@@ -8183,7 +8117,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>52</v>
@@ -8204,7 +8138,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>52</v>
@@ -8225,7 +8159,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>52</v>
@@ -8246,7 +8180,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>52</v>
@@ -8267,7 +8201,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>52</v>
@@ -8276,7 +8210,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>51</v>
@@ -8288,7 +8222,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>11</v>
@@ -8297,7 +8231,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>51</v>
@@ -8309,7 +8243,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>11</v>
@@ -8330,7 +8264,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>52</v>
@@ -8351,7 +8285,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>52</v>
@@ -8372,7 +8306,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>52</v>
@@ -8393,7 +8327,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>52</v>
@@ -8402,7 +8336,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>51</v>
@@ -8414,7 +8348,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>49</v>
@@ -8435,7 +8369,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>52</v>
@@ -8444,7 +8378,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>51</v>
@@ -8456,7 +8390,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>49</v>
@@ -8465,7 +8399,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>51</v>
@@ -8477,7 +8411,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>49</v>
@@ -8498,7 +8432,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>52</v>
@@ -8519,7 +8453,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>52</v>
@@ -8528,7 +8462,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>51</v>
@@ -8540,7 +8474,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>49</v>
@@ -8549,7 +8483,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>51</v>
@@ -8561,7 +8495,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>49</v>
@@ -8582,7 +8516,7 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>52</v>
@@ -8591,7 +8525,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>51</v>
@@ -8603,7 +8537,7 @@
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>49</v>
@@ -8612,7 +8546,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>51</v>
@@ -8624,7 +8558,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>49</v>
@@ -8633,7 +8567,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>51</v>
@@ -8645,7 +8579,7 @@
         <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>49</v>
@@ -8666,7 +8600,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>52</v>
@@ -8675,7 +8609,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>51</v>
@@ -8687,7 +8621,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>49</v>
@@ -8696,7 +8630,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>51</v>
@@ -8708,7 +8642,7 @@
         <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>49</v>
@@ -8717,7 +8651,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>51</v>
@@ -8729,7 +8663,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>49</v>
@@ -8738,7 +8672,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
@@ -8750,7 +8684,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>49</v>
@@ -8759,7 +8693,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
@@ -8771,7 +8705,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>49</v>
@@ -8792,7 +8726,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>52</v>
@@ -8813,7 +8747,7 @@
         <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>52</v>
@@ -8822,7 +8756,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>51</v>
@@ -8834,7 +8768,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>49</v>
@@ -8855,7 +8789,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>52</v>
@@ -8864,7 +8798,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>51</v>
@@ -8876,7 +8810,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>49</v>
@@ -8885,7 +8819,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>51</v>
@@ -8897,16 +8831,16 @@
         <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>51</v>
@@ -8918,10 +8852,10 @@
         <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -8939,7 +8873,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
@@ -8960,7 +8894,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>52</v>
@@ -8969,7 +8903,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>51</v>
@@ -8981,7 +8915,7 @@
         <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>31</v>
@@ -8990,7 +8924,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>51</v>
@@ -9002,7 +8936,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -9011,7 +8945,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>51</v>
@@ -9023,7 +8957,7 @@
         <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>49</v>
@@ -9032,7 +8966,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>51</v>
@@ -9044,16 +8978,16 @@
         <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>51</v>
@@ -9065,7 +8999,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>49</v>
@@ -9086,7 +9020,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>52</v>
@@ -9107,7 +9041,7 @@
         <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>52</v>
@@ -9128,7 +9062,7 @@
         <v>9</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>52</v>
